--- a/LOGS/9c51083f-f1f2-4b35-8fb6-276215c9cdc8/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/9c51083f-f1f2-4b35-8fb6-276215c9cdc8/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="108">
   <si>
     <t>rows</t>
   </si>
@@ -47,9 +47,15 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>6 Cash at bank</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Inventories Finished goods</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
     <t>Inventories Work in progress</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Cost or At1 April 2022</t>
   </si>
   <si>
@@ -122,6 +131,45 @@
     <t>Total</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>None Accounting profit before income tax nan</t>
+  </si>
+  <si>
+    <t>None At Australia's statutory income tax rate of30% At Australia's statutory income tax rate of30% At Australia's statutory income tax rate of30%</t>
+  </si>
+  <si>
+    <t>(2022: 30%) Adjustments in respect of current income tax of current income tax of</t>
+  </si>
+  <si>
+    <t>Non deductible expenses -Entertainment nan nan</t>
+  </si>
+  <si>
+    <t>Non deductible expenses -Sundry items nan nan</t>
+  </si>
+  <si>
+    <t>Non deductible expenses Effect of lower tax rates in New Zealand in New Zealand</t>
+  </si>
+  <si>
+    <t>Non deductible expenses Income tax expense nan nan</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>None Current income tax charge Current income tax charge nan</t>
+  </si>
+  <si>
+    <t>None Adjustments in respect of current income tax of Adjustments in respect of current income tax of Adjustments in respect of current income tax of</t>
+  </si>
+  <si>
+    <t>Deferred tax: Relating to origination and reversaloft temporary Relating to origination and reversaloft temporary Relating to origination and reversaloft temporary</t>
+  </si>
+  <si>
+    <t>Income tax statement of profit or loss statement of profit or loss nan</t>
+  </si>
+  <si>
     <t>Deferred tax relates to the following: Guaranteed Maintenance</t>
   </si>
   <si>
@@ -224,6 +272,9 @@
     <t>Software $000</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Curre nt Trade creditors (i</t>
   </si>
   <si>
@@ -236,12 +287,42 @@
     <t>Curre nt Total</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>None Forward currency contracts</t>
   </si>
   <si>
     <t>None Total</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>None Obligations under finance lease</t>
+  </si>
+  <si>
+    <t>None Lease liabilities</t>
+  </si>
+  <si>
+    <t>None Bank loans</t>
+  </si>
+  <si>
+    <t>Non current Obligations under finance</t>
+  </si>
+  <si>
+    <t>Non current Non-current portion of long term bank loans</t>
+  </si>
+  <si>
+    <t>Non current Lease liabilities</t>
+  </si>
+  <si>
+    <t>Non current Total</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Current Warranty and after sales service (a)</t>
   </si>
   <si>
@@ -266,10 +347,16 @@
     <t>Non current Total nan</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>29,121,791 (2022: 29,121,791) fully paid ordinary shares and authorised</t>
   </si>
   <si>
     <t>$000</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -627,13 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,10 +733,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -657,16 +747,22 @@
       <c r="D2">
         <v>54859</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>49181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -676,13 +772,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,13 +791,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -709,13 +808,16 @@
       <c r="D2">
         <v>10877</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -723,13 +825,16 @@
       <c r="D3">
         <v>541</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -737,13 +842,16 @@
       <c r="D4">
         <v>-389</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -751,13 +859,16 @@
       <c r="D5">
         <v>-44</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -765,13 +876,16 @@
       <c r="D6">
         <v>10985</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -779,13 +893,16 @@
       <c r="D7">
         <v>-10043</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -793,13 +910,16 @@
       <c r="D8">
         <v>-412</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -807,13 +927,16 @@
       <c r="D9">
         <v>362</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -821,13 +944,16 @@
       <c r="D10">
         <v>-7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -835,13 +961,16 @@
       <c r="D11">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -849,13 +978,16 @@
       <c r="D12">
         <v>-10059</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -863,19 +995,25 @@
       <c r="D13">
         <v>834</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>2023</v>
       </c>
       <c r="D14">
         <v>926</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -897,13 +1035,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,10 +1054,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -927,10 +1068,13 @@
       <c r="D2">
         <v>38338</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -938,10 +1082,13 @@
       <c r="D3">
         <v>122106</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -949,10 +1096,13 @@
       <c r="D4">
         <v>294449</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -960,10 +1110,13 @@
       <c r="D5">
         <v>454893</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -971,10 +1124,13 @@
       <c r="D6">
         <v>167234</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -982,10 +1138,13 @@
       <c r="D7">
         <v>104628</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -993,16 +1152,22 @@
       <c r="D8">
         <v>160156</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>432018</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1012,13 +1177,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,10 +1196,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1042,10 +1210,13 @@
       <c r="D2">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1053,10 +1224,13 @@
       <c r="D3">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1064,16 +1238,22 @@
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1083,12 +1263,254 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>9201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>157815</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>167016</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>16150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>26563</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>42713</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>9180</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>191963</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>201159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>19160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>21027</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>40189</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1107,13 +1529,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,10 +1548,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1137,10 +1562,13 @@
       <c r="D2">
         <v>16370</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1148,10 +1576,13 @@
       <c r="D3">
         <v>26361</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1159,10 +1590,13 @@
       <c r="D4">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1170,10 +1604,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1181,10 +1618,13 @@
       <c r="D6">
         <v>42866</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1192,10 +1632,13 @@
       <c r="D7">
         <v>824</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1203,10 +1646,13 @@
       <c r="D8">
         <v>5080</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1214,10 +1660,13 @@
       <c r="D9">
         <v>5904</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1225,10 +1674,13 @@
       <c r="D10">
         <v>14287</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1236,10 +1688,13 @@
       <c r="D11">
         <v>22270</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1247,10 +1702,13 @@
       <c r="D12">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1258,10 +1716,13 @@
       <c r="D13">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1269,10 +1730,13 @@
       <c r="D14">
         <v>36729</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1280,10 +1744,13 @@
       <c r="D15">
         <v>713</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1291,16 +1758,22 @@
       <c r="D16">
         <v>4533</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
         <v>5246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1322,13 +1795,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,13 +1814,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1355,19 +1831,25 @@
       <c r="D2">
         <v>33670</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>33670</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1425,13 +1907,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,10 +1926,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1455,10 +1940,13 @@
       <c r="D2">
         <v>615797</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1466,10 +1954,13 @@
       <c r="D3">
         <v>-3337</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1477,10 +1968,13 @@
       <c r="D4">
         <v>612460</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1488,10 +1982,13 @@
       <c r="D5">
         <v>48101</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1499,10 +1996,13 @@
       <c r="D6">
         <v>660561</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1510,10 +2010,13 @@
       <c r="D7">
         <v>559169</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1521,10 +2024,13 @@
       <c r="D8">
         <v>-2851</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1532,10 +2038,13 @@
       <c r="D9">
         <v>556318</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1543,16 +2052,22 @@
       <c r="D10">
         <v>29939</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>586257</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1562,13 +2077,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,13 +2096,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1595,13 +2113,16 @@
       <c r="D2">
         <v>273216</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1609,13 +2130,16 @@
       <c r="D3">
         <v>32769</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1623,13 +2147,16 @@
       <c r="D4">
         <v>-7998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1637,13 +2164,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1651,13 +2181,16 @@
       <c r="D6">
         <v>-879</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1665,13 +2198,16 @@
       <c r="D7">
         <v>297108</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1679,13 +2215,16 @@
       <c r="D8">
         <v>22269</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1693,13 +2232,16 @@
       <c r="D9">
         <v>3602</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1707,13 +2249,16 @@
       <c r="D10">
         <v>-1573</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1721,13 +2266,16 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1735,13 +2283,16 @@
       <c r="D12">
         <v>-166</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1749,13 +2300,16 @@
       <c r="D13">
         <v>24132</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1763,13 +2317,16 @@
       <c r="D14">
         <v>250947</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1777,13 +2334,16 @@
       <c r="D15">
         <v>272976</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1791,13 +2351,16 @@
       <c r="D16">
         <v>5917</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1805,13 +2368,16 @@
       <c r="D17">
         <v>330</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1819,13 +2385,16 @@
       <c r="D18">
         <v>-2817</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1833,13 +2402,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -1847,13 +2419,16 @@
       <c r="D20">
         <v>-221</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1861,13 +2436,16 @@
       <c r="D21">
         <v>3209</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -1875,13 +2453,16 @@
       <c r="D22">
         <v>4498</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -1889,13 +2470,16 @@
       <c r="D23">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -1903,13 +2487,16 @@
       <c r="D24">
         <v>-2716</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -1917,13 +2504,16 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -1931,13 +2521,16 @@
       <c r="D26">
         <v>-33</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -1945,13 +2538,16 @@
       <c r="D27">
         <v>1901</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -1959,13 +2555,16 @@
       <c r="D28">
         <v>1419</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -1973,13 +2572,16 @@
       <c r="D29">
         <v>1308</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1987,13 +2589,16 @@
       <c r="D30">
         <v>105335</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -2001,13 +2606,16 @@
       <c r="D31">
         <v>10274</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -2015,13 +2623,16 @@
       <c r="D32">
         <v>-12191</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -2029,13 +2640,16 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -2043,13 +2657,16 @@
       <c r="D34">
         <v>-938</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -2057,13 +2674,16 @@
       <c r="D35">
         <v>102480</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -2071,13 +2691,16 @@
       <c r="D36">
         <v>72491</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -2085,13 +2708,16 @@
       <c r="D37">
         <v>8145</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -2099,13 +2725,16 @@
       <c r="D38">
         <v>-11382</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -2113,13 +2742,16 @@
       <c r="D39">
         <v>-7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -2127,13 +2759,16 @@
       <c r="D40">
         <v>-436</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -2141,13 +2776,16 @@
       <c r="D41">
         <v>68811</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -2155,13 +2793,16 @@
       <c r="D42">
         <v>32844</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -2169,13 +2810,16 @@
       <c r="D43">
         <v>33669</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -2183,13 +2827,16 @@
       <c r="D44">
         <v>8084</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -2197,13 +2844,16 @@
       <c r="D45">
         <v>3821</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -2211,13 +2861,16 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>2023</v>
@@ -2225,13 +2878,16 @@
       <c r="D47">
         <v>-13</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -2239,13 +2895,16 @@
       <c r="D48">
         <v>177</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C49">
         <v>2023</v>
@@ -2253,13 +2912,16 @@
       <c r="D49">
         <v>12069</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>2022</v>
@@ -2267,13 +2929,16 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C51">
         <v>2023</v>
@@ -2281,13 +2946,16 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C52">
         <v>2023</v>
@@ -2295,13 +2963,16 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C53">
         <v>2023</v>
@@ -2309,13 +2980,16 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <v>2023</v>
@@ -2323,13 +2997,16 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <v>2023</v>
@@ -2337,13 +3014,16 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C56">
         <v>2022</v>
@@ -2351,13 +3031,16 @@
       <c r="D56">
         <v>8084</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <v>2023</v>
@@ -2365,13 +3048,16 @@
       <c r="D57">
         <v>12069</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>2022</v>
@@ -2379,13 +3065,16 @@
       <c r="D58">
         <v>255818</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>2023</v>
@@ -2393,13 +3082,16 @@
       <c r="D59">
         <v>71970</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>2023</v>
@@ -2407,13 +3099,16 @@
       <c r="D60">
         <v>-86129</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C61">
         <v>2023</v>
@@ -2421,13 +3116,16 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>2023</v>
@@ -2435,13 +3133,16 @@
       <c r="D62">
         <v>-3271</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C63">
         <v>2023</v>
@@ -2449,13 +3150,16 @@
       <c r="D63">
         <v>238388</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C64">
         <v>2022</v>
@@ -2463,13 +3167,16 @@
       <c r="D64">
         <v>71693</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>2023</v>
@@ -2477,13 +3184,16 @@
       <c r="D65">
         <v>39105</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C66">
         <v>2023</v>
@@ -2491,13 +3201,16 @@
       <c r="D66">
         <v>-40858</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C67">
         <v>2023</v>
@@ -2505,13 +3218,16 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C68">
         <v>2023</v>
@@ -2519,13 +3235,16 @@
       <c r="D68">
         <v>-832</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C69">
         <v>2023</v>
@@ -2533,13 +3252,16 @@
       <c r="D69">
         <v>69108</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C70">
         <v>2022</v>
@@ -2547,13 +3269,16 @@
       <c r="D70">
         <v>184125</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C71">
         <v>2023</v>
@@ -2561,13 +3286,16 @@
       <c r="D71">
         <v>169280</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C72">
         <v>2022</v>
@@ -2575,13 +3303,16 @@
       <c r="D72">
         <v>648370</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>2023</v>
@@ -2589,13 +3320,16 @@
       <c r="D73">
         <v>119164</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C74">
         <v>2023</v>
@@ -2603,13 +3337,16 @@
       <c r="D74">
         <v>-109135</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C75">
         <v>2023</v>
@@ -2617,13 +3354,16 @@
       <c r="D75">
         <v>-13</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C76">
         <v>2023</v>
@@ -2631,13 +3371,16 @@
       <c r="D76">
         <v>-5132</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C77">
         <v>2023</v>
@@ -2645,13 +3388,16 @@
       <c r="D77">
         <v>653254</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C78">
         <v>2022</v>
@@ -2659,13 +3405,16 @@
       <c r="D78">
         <v>170951</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C79">
         <v>2023</v>
@@ -2673,13 +3422,16 @@
       <c r="D79">
         <v>51004</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C80">
         <v>2023</v>
@@ -2687,13 +3439,16 @@
       <c r="D80">
         <v>-56529</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C81">
         <v>2023</v>
@@ -2701,13 +3456,16 @@
       <c r="D81">
         <v>-7</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C82">
         <v>2023</v>
@@ -2715,13 +3473,16 @@
       <c r="D82">
         <v>-1467</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C83">
         <v>2023</v>
@@ -2729,13 +3490,16 @@
       <c r="D83">
         <v>163952</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C84">
         <v>2022</v>
@@ -2743,19 +3507,25 @@
       <c r="D84">
         <v>477419</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>2023</v>
       </c>
       <c r="D85">
         <v>489302</v>
+      </c>
+      <c r="E85" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2765,37 +3535,381 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>325647</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>97694</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>3982</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>-102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>101692</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>226023</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>67807</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>447</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>-187</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>-136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>67952</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>111412</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>-9804</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>101692</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>71361</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>447</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>-3856</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>67952</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2808,10 +3922,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2819,10 +3936,13 @@
       <c r="D2">
         <v>5781</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2830,10 +3950,13 @@
       <c r="D3">
         <v>5963</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2841,10 +3964,13 @@
       <c r="D4">
         <v>4498</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2852,10 +3978,13 @@
       <c r="D5">
         <v>4229</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2863,10 +3992,13 @@
       <c r="D6">
         <v>3347</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2874,10 +4006,13 @@
       <c r="D7">
         <v>2383</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2885,10 +4020,13 @@
       <c r="D8">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2896,10 +4034,13 @@
       <c r="D9">
         <v>7024</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2907,10 +4048,13 @@
       <c r="D10">
         <v>2296</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2918,10 +4062,13 @@
       <c r="D11">
         <v>1724</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -2929,10 +4076,13 @@
       <c r="D12">
         <v>937</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -2940,10 +4090,13 @@
       <c r="D13">
         <v>-568</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -2951,10 +4104,13 @@
       <c r="D14">
         <v>2094</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -2962,10 +4118,13 @@
       <c r="D15">
         <v>-565</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -2973,10 +4132,13 @@
       <c r="D16">
         <v>1920</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -2984,10 +4146,13 @@
       <c r="D17">
         <v>-1442</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2995,10 +4160,13 @@
       <c r="D18">
         <v>39659</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -3006,10 +4174,13 @@
       <c r="D19">
         <v>3774</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -3017,10 +4188,13 @@
       <c r="D20">
         <v>4784</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -3028,10 +4202,13 @@
       <c r="D21">
         <v>3337</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -3039,10 +4216,13 @@
       <c r="D22">
         <v>2865</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -3050,10 +4230,13 @@
       <c r="D23">
         <v>2975</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -3061,10 +4244,13 @@
       <c r="D24">
         <v>1921</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -3072,10 +4258,13 @@
       <c r="D25">
         <v>-108</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -3083,10 +4272,13 @@
       <c r="D26">
         <v>5203</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -3094,10 +4286,13 @@
       <c r="D27">
         <v>2656</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -3105,10 +4300,13 @@
       <c r="D28">
         <v>1438</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -3116,10 +4314,13 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -3127,10 +4328,13 @@
       <c r="D30">
         <v>-2454</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -3138,10 +4342,13 @@
       <c r="D31">
         <v>4071</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -3149,10 +4356,13 @@
       <c r="D32">
         <v>-1206</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -3160,10 +4370,13 @@
       <c r="D33">
         <v>529</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -3171,16 +4384,22 @@
       <c r="D34">
         <v>-1037</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <v>2022</v>
       </c>
       <c r="D35">
         <v>28748</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3190,13 +4409,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3209,13 +4428,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3223,13 +4445,16 @@
       <c r="D2">
         <v>42234</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3237,13 +4462,16 @@
       <c r="D3">
         <v>-2575</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3251,13 +4479,16 @@
       <c r="D4">
         <v>39659</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3265,13 +4496,16 @@
       <c r="D5">
         <v>42234</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3279,13 +4513,16 @@
       <c r="D6">
         <v>-2575</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3293,13 +4530,16 @@
       <c r="D7">
         <v>39659</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3307,13 +4547,16 @@
       <c r="D8">
         <v>33553</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3321,19 +4564,25 @@
       <c r="D9">
         <v>-4805</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>2022</v>
       </c>
       <c r="D10">
         <v>28748</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
